--- a/Schema Migration Template.xlsx
+++ b/Schema Migration Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\aviator-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ED3F260-8E36-4C04-916B-73E0D9BA2A79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9056E935-0C29-4B7A-848D-3EDB732B48DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{69978C43-82FA-4668-86CC-20A2778B4BB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{69978C43-82FA-4668-86CC-20A2778B4BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>host</t>
   </si>
   <si>
-    <t>34.171.176.139</t>
-  </si>
-  <si>
     <t>teradata host IP</t>
   </si>
   <si>
@@ -176,13 +173,16 @@
   </si>
   <si>
     <t>insurance.claim</t>
+  </si>
+  <si>
+    <t>34.31.79.171</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,12 +201,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,15 +260,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,7 +606,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,77 +719,77 @@
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1025</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1025</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -817,35 +811,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Schema Migration Template.xlsx
+++ b/Schema Migration Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Desktop\aviator-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9056E935-0C29-4B7A-848D-3EDB732B48DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF09E7D3-CAAF-4A8B-A39C-7AC21C3F9D56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" activeTab="1" xr2:uid="{69978C43-82FA-4668-86CC-20A2778B4BB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{69978C43-82FA-4668-86CC-20A2778B4BB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,27 +73,18 @@
     <t>sourcePath</t>
   </si>
   <si>
-    <t>gs://abhi__8055/input</t>
-  </si>
-  <si>
     <t>GCS path to store teradata DDL</t>
   </si>
   <si>
     <t>targetPath</t>
   </si>
   <si>
-    <t>gs://abhi__8055/output</t>
-  </si>
-  <si>
     <t>GCS path to store converted DDL</t>
   </si>
   <si>
     <t>sourceDatabase</t>
   </si>
   <si>
-    <t>insurance</t>
-  </si>
-  <si>
     <t>source database name</t>
   </si>
   <si>
@@ -176,6 +167,15 @@
   </si>
   <si>
     <t>34.31.79.171</t>
+  </si>
+  <si>
+    <t>insurance_db</t>
+  </si>
+  <si>
+    <t>gs://aviator_load_testing/input</t>
+  </si>
+  <si>
+    <t>gs://aviator_load_testing/output</t>
   </si>
 </sst>
 </file>
@@ -606,13 +606,13 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -665,131 +665,131 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4">
         <v>1025</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -812,34 +812,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
